--- a/cis4640/inClass/probability.xlsx
+++ b/cis4640/inClass/probability.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t6urbanowicz\Desktop\gitStuff\School-Stuff\cis4640\inClass\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\urbo4\Desktop\school\cis4640\inClass\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>Numerator</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Prob(default=yes|student=yes|$1000 balance)</t>
+  </si>
+  <si>
+    <t>Prob(noobie=yes|age=20|male=yes|$50000 income)</t>
   </si>
 </sst>
 </file>
@@ -362,15 +365,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C20"/>
+  <dimension ref="B2:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -509,6 +512,33 @@
         <v>2.9712523058818266E-3</v>
       </c>
     </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <f>POWER(2.71828, -1.9635+0.0196*20-0.2632)</f>
+        <v>0.15966159004276634</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <f>1+C22</f>
+        <v>1.1596615900427663</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <f>C22/C23</f>
+        <v>0.13767946736674991</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
